--- a/tables/sectoral_specialization_msp_2021_percentage.xlsx
+++ b/tables/sectoral_specialization_msp_2021_percentage.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -337,46 +337,46 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -651,7 +651,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -661,62 +661,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.77734375" customWidth="1"/>
+    <col min="1" max="1" width="33.7109375" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="21.109375" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1">
       <c r="A1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="24.6" customHeight="1">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="23" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="24"/>
-    </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1">
-      <c r="A3" s="21"/>
-      <c r="B3" s="25" t="s">
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A3" s="23"/>
+      <c r="B3" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="25" t="s">
+      <c r="C3" s="28"/>
+      <c r="D3" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="26"/>
-    </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1">
-      <c r="A4" s="22"/>
-      <c r="B4" s="19" t="s">
+      <c r="E3" s="28"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A4" s="24"/>
+      <c r="B4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -733,7 +733,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
@@ -743,21 +743,21 @@
       <c r="C6" s="6">
         <v>5.6</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="19">
         <v>23.2</v>
       </c>
       <c r="E6" s="6">
         <v>22.8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1">
+    <row r="7" spans="1:5" ht="15.75" thickBot="1">
       <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="29">
         <v>3.9</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="29">
         <v>5</v>
       </c>
       <c r="D7" s="16">
@@ -767,20 +767,20 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1">
+    <row r="8" spans="1:5" ht="15.75" thickBot="1">
       <c r="A8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="29">
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="20">
         <v>11.3</v>
       </c>
       <c r="E8" s="11">
         <v>11.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1">
+    <row r="9" spans="1:5" ht="15.75" thickBot="1">
       <c r="A9" s="9" t="s">
         <v>5</v>
       </c>
@@ -790,14 +790,14 @@
       <c r="C9" s="10">
         <v>5.2</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="21">
         <v>56</v>
       </c>
       <c r="E9" s="13">
         <v>56.7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1">
+    <row r="10" spans="1:5" ht="15.75" thickBot="1">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
@@ -807,14 +807,14 @@
       <c r="C10" s="12">
         <v>74.099999999999994</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="20">
         <v>16.7</v>
       </c>
       <c r="E10" s="11">
         <v>16.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="36" thickBot="1">
+    <row r="11" spans="1:5" ht="37.5" thickBot="1">
       <c r="A11" s="14" t="s">
         <v>7</v>
       </c>
@@ -831,7 +831,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1">
+    <row r="12" spans="1:5" ht="15.75" thickBot="1">
       <c r="A12" s="15" t="s">
         <v>8</v>
       </c>
@@ -841,14 +841,14 @@
       <c r="C12" s="3">
         <v>4.7</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="20">
         <v>2.8</v>
       </c>
       <c r="E12" s="11">
         <v>3.1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="24.6" thickBot="1">
+    <row r="13" spans="1:5" ht="25.5" thickBot="1">
       <c r="A13" s="14" t="s">
         <v>9</v>
       </c>
@@ -865,7 +865,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1">
+    <row r="14" spans="1:5" ht="15.75" thickBot="1">
       <c r="A14" s="15" t="s">
         <v>10</v>
       </c>
@@ -875,14 +875,14 @@
       <c r="C14" s="3">
         <v>1.5</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="20">
         <v>2</v>
       </c>
       <c r="E14" s="11">
         <v>1.9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1">
+    <row r="15" spans="1:5" ht="15.75" thickBot="1">
       <c r="A15" s="14" t="s">
         <v>11</v>
       </c>
@@ -899,7 +899,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1">
+    <row r="16" spans="1:5" ht="15.75" thickBot="1">
       <c r="A16" s="15" t="s">
         <v>12</v>
       </c>
@@ -909,14 +909,14 @@
       <c r="C16" s="3">
         <v>4.8</v>
       </c>
-      <c r="D16" s="29">
+      <c r="D16" s="20">
         <v>5.5</v>
       </c>
       <c r="E16" s="11">
         <v>4.5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="24.6" thickBot="1">
+    <row r="17" spans="1:5" ht="25.5" thickBot="1">
       <c r="A17" s="14" t="s">
         <v>21</v>
       </c>
@@ -933,7 +933,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="24.6" thickBot="1">
+    <row r="18" spans="1:5" ht="37.5" thickBot="1">
       <c r="A18" s="15" t="s">
         <v>13</v>
       </c>
@@ -943,14 +943,14 @@
       <c r="C18" s="3">
         <v>2.7</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="20">
         <v>2.2999999999999998</v>
       </c>
       <c r="E18" s="11">
         <v>2.8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" thickBot="1">
+    <row r="19" spans="1:5" ht="15.75" thickBot="1">
       <c r="A19" s="14" t="s">
         <v>14</v>
       </c>
@@ -967,7 +967,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="24.6" thickBot="1">
+    <row r="20" spans="1:5" ht="25.5" thickBot="1">
       <c r="A20" s="15" t="s">
         <v>15</v>
       </c>
@@ -977,14 +977,14 @@
       <c r="C20" s="3">
         <v>0.9</v>
       </c>
-      <c r="D20" s="29">
+      <c r="D20" s="20">
         <v>1</v>
       </c>
       <c r="E20" s="11">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" thickBot="1">
+    <row r="21" spans="1:5" ht="15.75" thickBot="1">
       <c r="A21" s="14" t="s">
         <v>16</v>
       </c>
@@ -1003,13 +1003,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
